--- a/src/main/resources/Test.xlsx
+++ b/src/main/resources/Test.xlsx
@@ -68,7 +68,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>h1ack1111er@gmail.com</t>
+    <t>h11a1ck1111e1r@gmail.com</t>
   </si>
   <si>
     <t>Pass</t>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
